--- a/medicine/Enfance/À_chacun_son_Everest/À_chacun_son_Everest.xlsx
+++ b/medicine/Enfance/À_chacun_son_Everest/À_chacun_son_Everest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_chacun_son_Everest</t>
+          <t>À_chacun_son_Everest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">À chacun son Everest est une association caritative française qui a pour objectif d'aider les enfants atteints de leucémie ou de cancer à « guérir mieux ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_chacun_son_Everest</t>
+          <t>À_chacun_son_Everest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À chacun son Everest a été créée en 1994 par Christine Janin, médecin alpiniste et première Française à atteindre le sommet de l'Everest, et le professeur André Baruchel, chef du service d'hématologie pédiatrique de l'hôpital Robert-Debré à Paris.
 À chacun son Everest est une association loi de 1901 présidé par Philippe Leboeuf, Managing director Raffles London .
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80_chacun_son_Everest</t>
+          <t>À_chacun_son_Everest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chaque année en France, plus de 1 500 enfants sont touchés par le cancer. Près de 75 % d'entre eux peuvent aujourd'hui guérir. À chacun son Everest ! se propose d'aider les enfants atteints de cancer ou de leucémie a « guérir mieux » grâce à l'ascension de « leur Everest ».
-Depuis 1994, près  de 4 700 enfants ont atteint leur sommet[1]. 21 hôpitaux de la France confient leurs jeunes à l'association dans une démarche thérapeutique. Les stages, intégralement pris en charge financièrement par l'association, se déroulent à Chamonix au pied du Mont Blanc. Plusieurs semaines de stages sont organisées chaque annee 
+Depuis 1994, près  de 4 700 enfants ont atteint leur sommet. 21 hôpitaux de la France confient leurs jeunes à l'association dans une démarche thérapeutique. Les stages, intégralement pris en charge financièrement par l'association, se déroulent à Chamonix au pied du Mont Blanc. Plusieurs semaines de stages sont organisées chaque annee 
 pour des enfants en rémission, en cours de traitement ou guéris ;
 adaptés à chaque enfant (en fonction de l'âge, de la saison, de l'évolution de la maladie et de la présence ou non de séquelles.
 Depuis 2011, des séjours ont été proposés à des femmes en rémission d’un cancer du sein 
